--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirimedlen/Desktop/Jiri/eDX/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF6FB2-1D31-294F-AB30-F14A83D43E4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E790021-3092-FC41-B622-00196996E384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="4380" windowWidth="28040" windowHeight="17440" xr2:uid="{5CCF1E5A-2872-C146-A70E-94ABFCCA89B2}"/>
+    <workbookView xWindow="9860" yWindow="3260" windowWidth="36140" windowHeight="20780" xr2:uid="{5CCF1E5A-2872-C146-A70E-94ABFCCA89B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">management_styles </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="28">
   <si>
     <t>Gender</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>Age</t>
   </si>
   <si>
     <t>Country</t>
@@ -51,9 +48,6 @@
     <t>MotherPresent</t>
   </si>
   <si>
-    <t>FatherPresent</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -63,27 +57,10 @@
     <t>NO</t>
   </si>
   <si>
-    <t>NumberOfSiblings</t>
-  </si>
-  <si>
     <t>Democratic</t>
   </si>
   <si>
     <t>MotherParentingStyle</t>
-  </si>
-  <si>
-    <r>
-      <t>Father</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ParentingStyle</t>
-    </r>
   </si>
   <si>
     <t>authoritative</t>
@@ -101,10 +78,45 @@
     <t>permissive</t>
   </si>
   <si>
-    <t>Autocratic</t>
+    <t>Laissez-faire</t>
   </si>
   <si>
-    <t>Laissez-faire</t>
+    <r>
+      <t>Father</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ParentingStyle</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">authoritarian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autocratic </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management_styles </t>
+  </si>
+  <si>
+    <t>FatherKnown</t>
+  </si>
+  <si>
+    <t>NumberOfKids</t>
+  </si>
+  <si>
+    <t>PHD</t>
+  </si>
+  <si>
+    <t>KidsAgeOrder</t>
   </si>
   <si>
     <t>Transactional</t>
@@ -112,21 +124,12 @@
   <si>
     <t>Transformational</t>
   </si>
-  <si>
-    <t>Jiri</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,16 +138,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,16 +184,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,182 +510,4475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3C0C47-0703-9D42-8B2D-EE503C769BCE}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1960</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1969</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1960</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1969</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1964</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1960</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1969</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1965</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1963</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1963</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1965</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1963</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1969</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1969</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1963</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1962</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1963</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1960</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1961</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1960</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2</v>
+      </c>
+      <c r="J57" s="4">
+        <v>2</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1965</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="4">
+        <v>2</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1969</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1965</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1960</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2</v>
+      </c>
+      <c r="J65" s="4">
+        <v>2</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1963</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="4">
+        <v>2</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1961</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1960</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="4">
+        <v>2</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="4">
+        <v>2</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1965</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="4">
+        <v>2</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="4">
+        <v>2</v>
+      </c>
+      <c r="J74" s="4">
+        <v>2</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="4">
+        <v>2</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1960</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="4">
+        <v>2</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1968</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="4">
+        <v>2</v>
+      </c>
+      <c r="J80" s="4">
+        <v>2</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1968</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1962</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2</v>
+      </c>
+      <c r="J83" s="4">
+        <v>2</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="4">
+        <v>2</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1961</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="4">
+        <v>2</v>
+      </c>
+      <c r="J86" s="4">
+        <v>2</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="4">
+        <v>2</v>
+      </c>
+      <c r="J87" s="4">
+        <v>2</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1968</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="4">
+        <v>2</v>
+      </c>
+      <c r="J88" s="4">
+        <v>2</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1969</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="4">
+        <v>2</v>
+      </c>
+      <c r="J89" s="4">
+        <v>2</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1960</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="4">
+        <v>2</v>
+      </c>
+      <c r="J90" s="4">
+        <v>2</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1963</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="4">
+        <v>2</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="4">
+        <v>2</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1963</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="4">
+        <v>2</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="4">
+        <v>2</v>
+      </c>
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1962</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="4">
+        <v>2</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="4">
+        <v>2</v>
+      </c>
+      <c r="J98" s="4">
+        <v>2</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="4">
+        <v>2</v>
+      </c>
+      <c r="J99" s="4">
+        <v>2</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1965</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="4">
+        <v>2</v>
+      </c>
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1966</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="4">
+        <v>2</v>
+      </c>
+      <c r="J102" s="4">
+        <v>2</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6">
+        <v>1960</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1963</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="4">
+        <v>2</v>
+      </c>
+      <c r="J104" s="4">
+        <v>2</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1961</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="4">
+        <v>2</v>
+      </c>
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1963</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1960</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="4">
+        <v>2</v>
+      </c>
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6">
+        <v>1967</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" s="4">
+        <v>2</v>
+      </c>
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1969</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="4">
+        <v>2</v>
+      </c>
+      <c r="J112" s="4">
+        <v>2</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1963</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="4">
+        <v>2</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1964</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="4">
+        <v>2</v>
+      </c>
+      <c r="J117" s="4">
+        <v>2</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{8FE5A019-B903-5E4A-B3DB-30CA592B8A45}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>